--- a/dataset/kasus_pengaduan_dan_solusi.xlsx
+++ b/dataset/kasus_pengaduan_dan_solusi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dara\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE1EDA-F2F4-4C7F-84CB-D6ED32848CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F8C43-E60C-4DD9-BEBA-BB4C6EA9F851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F2ADFE-3A3B-49AC-88BC-5E00DD59CFD5}"/>
   </bookViews>
@@ -36,30 +36,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Pengaduan</t>
-  </si>
-  <si>
-    <t>Solusi</t>
-  </si>
-  <si>
-    <t>Pengaduan tentang ketidaknyamanan sikap salah satu perawat di Ruang Dahlia yang galak, nada bicara tinggi dan tidak responsif terhadap pasien.</t>
-  </si>
-  <si>
-    <t>Pembinaan langsung dengan Tim R.Dahlia, khusus yang dimaksud akan dilakukan assesment psikologis klinis bagi sem</t>
-  </si>
-  <si>
     <t xml:space="preserve">sekedar masukan buat yang daftar online bisa ada loket tersendiri sehingga tidak perlu antri lagi atau seperti di Sarjito pasien tinggal print sendiri terus langsung ke poli </t>
   </si>
   <si>
     <t xml:space="preserve">akan kami tingkatkan pelayanan kami untuk kedepannya, mohon maaf atas ketidaknyamanannya. </t>
   </si>
   <si>
-    <t>saya atas nama Diky ingin melakukan pengaduan atas pelayanan di RSUD Wonosari yang kurang mengenakan pengarahan tidak dengan SOP yang berlaku, terimakasih semoga kedepannya bisa diperbaiki.</t>
-  </si>
-  <si>
     <t>terimakasih atas masukannya, kami mohon maaf atas ketidaknyamanan dalam pelayanan kami, akan kami jadikan evaluasi untuk perbaikan layanan yang lebih baik lagi.</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t xml:space="preserve">Akan kami koordinasikan dengan unit terkait. Rekomendasi : Lahan parkir terbatas diarahkan ke tempat parkir KODIM Petugas parkir agar mengarahkan mobil parkir di parkir KODIM </t>
   </si>
   <si>
-    <t>Melaporkan oknum pegawai ICU RSUD Wonosar an ADI NURCAHYANTO melakukan tindakan tidak adil kepada saya dengan mengingkari janji untuk menikahi. Saya sudah sempat hamil dan dilamar, sudah menjalani hubungan sebelum bercerai. Setelah itu saya dipaksa untuk dibawa ke rumah sakit untuk dilakukan operasi(mengugurkan kandungan). Dengan kondisi lemas saya minta untuk memberi kabar keluarga tetapi saudara tidak memberi kabar kepada orang tua saya, dan yang bertanda tangan untuk persetujuan operasi adalah saudara adi.</t>
-  </si>
-  <si>
     <t>Sudah ditindak lanjuti komite keperawatan untuk segera diklarifikasi. Sudah dilakukan pembinaan dan mutasi kepada ybs</t>
   </si>
   <si>
@@ -273,9 +252,6 @@
     <t>Laporan sudah disampaikan ke Ka Instalasi Rawat Jalan. memang ada beberapa poli yang pemeriksaan dokter agak siang mengingat dokter harus visit</t>
   </si>
   <si>
-    <t>Pelayanan suangat lama ada loket 1,2,3,4,5 kenapa yang dipakai hanya loket 1,2,3 ? Mohon ditingkatkan lagi kecepatan pelayanannya supaya pasien tidak sampai pucet menunggu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laporan sudah kami sampaikan ke Farmasi dan sudah di terima oleh Kepala  Instalasi Farmasi Memaksimalkan waktu tunggu </t>
   </si>
   <si>
@@ -331,6 +307,30 @@
   </si>
   <si>
     <t xml:space="preserve">Obat yang diberikan masih dalam masa berlaku namun karena dikonsumsi selama 1 bulan maka sisa obat yang memasuki bulan ekspired nya akan diganti oleh pihak farmasi RSKD. petugas apotek dan farmasi harus lebih hati-hati dalam mengeluarkan obat, periksa dengan teliti batas expired obat. </t>
+  </si>
+  <si>
+    <t>Melaporkan oknum pegawai ICU melakukan tindakan tidak adil kepada saya dengan mengingkari janji untuk menikahi. Saya sudah sempat hamil dan dilamar, sudah menjalani hubungan sebelum bercerai. Setelah itu saya dipaksa untuk dibawa ke rumah sakit untuk dilakukan operasi(mengugurkan kandungan). Dengan kondisi lemas saya minta untuk memberi kabar keluarga tetapi saudara tidak memberi kabar kepada orang tua saya, dan yang bertanda tangan untuk persetujuan operasi adalah saudara adi.</t>
+  </si>
+  <si>
+    <t>Pelayanan suangat lama ada banyak loket kenapa yang dipakai hanya beberapa loket? Mohon ditingkatkan lagi kecepatan pelayanannya supaya pasien tidak sampai pucet menunggu</t>
+  </si>
+  <si>
+    <t>Pengaduan tentang ketidaknyamanan sikap salah satu perawat di Ruangan  yang galak, nada bicara tinggi dan tidak responsif terhadap pasien.</t>
+  </si>
+  <si>
+    <t>Pembinaan langsung dengan Tim diruangan tersebut, khusus yang dimaksud akan dilakukan assesment psikologis klinis bagi sem</t>
+  </si>
+  <si>
+    <t>saya ingin melakukan pengaduan atas pelayanan yang kurang mengenakan pengarahan tidak dengan SOP yang berlaku, semoga kedepannya bisa diperbaiki.</t>
+  </si>
+  <si>
+    <t>pengaduan</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>solusi</t>
   </si>
 </sst>
 </file>
@@ -684,24 +684,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63E554-28A6-4ED2-B60F-A1647BC077A1}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.21875" customWidth="1"/>
+    <col min="2" max="2" width="66.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,10 +720,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,10 +731,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,10 +764,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,10 +786,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,10 +808,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,10 +819,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,10 +830,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,10 +841,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,10 +863,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,10 +874,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,10 +885,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,10 +907,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,10 +918,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,10 +940,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,10 +951,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,10 +962,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,10 +973,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,10 +984,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,10 +995,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,10 +1006,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,10 +1017,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,10 +1028,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,10 +1039,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,10 +1050,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,10 +1061,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1083,10 +1083,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,10 +1094,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,10 +1105,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,10 +1116,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,10 +1127,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,10 +1138,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,10 +1149,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,10 +1160,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,10 +1171,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,10 +1182,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,10 +1193,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,10 +1204,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,10 +1215,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,10 +1226,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/kasus_pengaduan_dan_solusi.xlsx
+++ b/dataset/kasus_pengaduan_dan_solusi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dara\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F8C43-E60C-4DD9-BEBA-BB4C6EA9F851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D4C69-92E2-428C-9337-5363BE9915E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F2ADFE-3A3B-49AC-88BC-5E00DD59CFD5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
   <si>
     <t xml:space="preserve">sekedar masukan buat yang daftar online bisa ada loket tersendiri sehingga tidak perlu antri lagi atau seperti di Sarjito pasien tinggal print sendiri terus langsung ke poli </t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve"> Kenapa sekelas rsud tidak ada jaga dokter kandungan jaga malam?</t>
   </si>
   <si>
-    <t>Selamat siang bapak ibu untuk saat ini dokter spesialis Obgyn di RSUD Wonosari baru ada 3 orang, yang memberikan layanan Rawat Inap, Ruang Bersalin, Rawat Jalan dan Kamar Operasi di jam kerja. Sementara untuk di luar kerja/malam di Ruang Bersalin ada bidan, perawat yang siaga kalau dibutuhkan konsultasi maka bidan akan menyampaikan via telepon kepada Dokter Obgyn. jika memang emergency Dokter Obgyn bisa didatangkan ke RSUD</t>
-  </si>
-  <si>
     <t>Mau ngasih masukan aja, tadi salah satu satpam yang jaga dekat mushola/masjid pintu masuk timur cara ngejelasin peraturannya SANGAT TIDAK MENGENAKKAN!!! Saya baru pertama kali bertemu satpam seperti itu, gak ada ramah ramahnya, terus satu lagi satpam tadi pas ngejelasin peraturan TIDAK PAKAI MASKER, tolong amat sangat kalau mau ngerekrut karyawan di tes dulu sopan santunnya. Terimakasih...</t>
   </si>
   <si>
@@ -331,6 +328,151 @@
   </si>
   <si>
     <t>solusi</t>
+  </si>
+  <si>
+    <t>Selamat siang bapak ibu untuk saat ini dokter spesialis Obgyn baru ada 3 orang, yang memberikan layanan Rawat Inap, Ruang Bersalin, Rawat Jalan dan Kamar Operasi di jam kerja. Sementara untuk di luar kerja/malam di Ruang Bersalin ada bidan, perawat yang siaga kalau dibutuhkan konsultasi maka bidan akan menyampaikan via telepon kepada Dokter Obgyn. jika memang emergency Dokter Obgyn bisa didatangkan ke RSUD</t>
+  </si>
+  <si>
+    <t>Pasien tidak dapat surat kenal lahir.</t>
+  </si>
+  <si>
+    <t>Larangan besuk pasien</t>
+  </si>
+  <si>
+    <t>Pendaftaran online tidak dapat diakses.</t>
+  </si>
+  <si>
+    <t>Hasil PCR tidak diinformasikan ke pasien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terjadinya antrian operasi Urologi. </t>
+  </si>
+  <si>
+    <t>Surat kenal lahir akan diberikan kepada orang tua pasien apabila memenuhui persyaratan yang ditetapkan seperti identitas asli orang tua</t>
+  </si>
+  <si>
+    <t>Hasil PCR hard copy bisa diambil pasien di laboratorium Mikrobiologi RSKD dan softcopy bisa didownload langsung dari aplikasi peduli lindungi.</t>
+  </si>
+  <si>
+    <t>Antrian jadwal operasi diatur oleh petugas Poli Urologi sesuai dengan jenis operasi.</t>
+  </si>
+  <si>
+    <t>Petugas poli THT jutek dan marah-marah dalam memberikan pelayanan</t>
+  </si>
+  <si>
+    <t>Penjaminan Perusahaan dengan guaranty letter ditolak</t>
+  </si>
+  <si>
+    <t>Informasi tindak lanjut pengobatan dari poli bedah tidak diberikan, sudah menunggu hampir 3 minggu</t>
+  </si>
+  <si>
+    <t>Tidak ada yang mengatur di mesin nomor antrian pendaftaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak ada hasil PCR. </t>
+  </si>
+  <si>
+    <t>Petugas bagian depan ruang radiologi tidak ramah dan terkesan marah</t>
+  </si>
+  <si>
+    <t>Petugas sudah dipanggil dan diberi pemahaman serta pembinaan, untuk keluarga pasien sudah diberikan informasi bahwa tindakan tersebut perlu peran aktif orang tua dan mengikuti aturan yang telah ditetapkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perusahaan yang belum melakukan kerja sama dengan RSKD tidak dapat menggunakan jaminan perusahaan, hal ini sudah menjadi ketentuan RS sehingga pasien dinyatakan sebagai pasien umum (mandiri). </t>
+  </si>
+  <si>
+    <t>Informasi terkait tindak lanjut pengobatan masih dikonsultasikan oleh dokter spesialis ke Dokter Spesialis RS type A, keluarga pasien akan diberikan informasi setelah ada jawaban dari RS Type A.</t>
+  </si>
+  <si>
+    <t>Petugas mesin nomor antrian ada stay ditempat yaitu Satpam yang bertugas di area poliklinik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasil PCR hard copy bisa diambil pasien di laboratorium Mikrobiologi RSKD dan softcopy bisa didownload langsung dari aplikasi peduli lindungi. </t>
+  </si>
+  <si>
+    <t>Petugas aministrasi Radiologi sudah diberi pengarahan dan pembinaan dari atasan langsung. Terkait untuk tindakan CT Scan dikarenakan alat masih rusak, pasien disarankan untuk kembali ke dokter spesialis untuk solusi segera dilakukan tindakan apakah dirujuk ke RS Type A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penanganan pasien di IRD lambat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petugas di IRD tidak memeriksa pasien, keluarga pasien meminta baru diperiksa. </t>
+  </si>
+  <si>
+    <t>Pengambilan obat di apotek IRD lambat.</t>
+  </si>
+  <si>
+    <t>Pasien BPJS tidak dilayani dengan baik.</t>
+  </si>
+  <si>
+    <t>Pasien dengan jaminan Asuransi ditolak</t>
+  </si>
+  <si>
+    <t>Petugas PA tidak ada.</t>
+  </si>
+  <si>
+    <t>Mesin ATM BNI mati</t>
+  </si>
+  <si>
+    <t>Pendaftaran online RSKD error.</t>
+  </si>
+  <si>
+    <t>ATM BNI kehilangan 2 barang (CCTV dan DVR) dalam mesin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petugas SSI mau mengaktifkan dan mengisi uang pada mesin ATM BNI tidak dijinkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jok motor Pegawai dirusak keluarga pasien.</t>
+  </si>
+  <si>
+    <t>Minta informasi ke poli eksekutif lewat WA tidak direspon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petugas administrasi ruang radiologi kurang sopan bahasanya.</t>
+  </si>
+  <si>
+    <t>Pasien sudah diberikan pelayanan di UGD dan petugas meminta maaf atas terselip pasien.</t>
+  </si>
+  <si>
+    <t>Petugas sudah melakukan pemeriksaan dan observasi terhadap pasien di IRD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petugas sudah memberikan pelayanan obat dan meminta maaf bahwa resep terikut dalam kotak resep yang telah selesai pelayanan. </t>
+  </si>
+  <si>
+    <t>Pelayanan di RSKD tidak ada membeda-bedakan pasien baik umum, BPJS, 
+perusahaan atau asuransi, semua sama..</t>
+  </si>
+  <si>
+    <t>Untuk tindakan pasien Asuransi dapat dikonsulkan ke bagian Kemitraan untuk konfirmasi ke pihak Asuransi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petugas PA sedang melakukan pengambilan FNAB didalam sehingga pasien menunggu diluar ruangan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM BNI akan difungsikan pada awal akhir April 2022 sambil menunggu mesin ATM baru yang dual fungsi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplikasi pendaftaran online sedang maintenance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATM BNI hanya kehilangan 1 barang yaitu DVR sedangkan CCTV masih ada terpasang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintu ATM BNI memang dikunci karena ada masalah kehilangan yang dari pantauan CCTV dan pemeriksaan lebih lanjut tidak ada indikasi pembobolan/pengrusakan, namun kotak penyimpanan DVR tidak digembok dan yang pegang kunci pihak SSI. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keluarga pasien bersedia bertanggung jawab mengganti kulit jok motor petugas RS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Untuk WA informasi poli eksekutif sudah berganti nomor menjadi 08115965505. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hasil PCR bisa diambil di laboratorium mikrobiologi atau didownload melalui aplikasi peduli lindungi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petugas ruang radiologi sudah dipanggil dan diberikan pembinaan. </t>
   </si>
 </sst>
 </file>
@@ -682,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63E554-28A6-4ED2-B60F-A1647BC077A1}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,13 +837,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -745,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,10 +895,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,10 +906,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,10 +917,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,10 +928,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,10 +939,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,10 +950,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,10 +961,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,10 +983,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,10 +994,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,10 +1005,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,10 +1016,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,10 +1027,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,10 +1038,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,10 +1049,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,10 +1060,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,10 +1071,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,10 +1082,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,10 +1093,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,10 +1104,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,10 +1115,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,10 +1126,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,10 +1137,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,10 +1148,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,10 +1159,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,10 +1170,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,10 +1181,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,10 +1192,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,10 +1203,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,10 +1214,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1083,10 +1225,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,10 +1236,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,10 +1247,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,10 +1258,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
         <v>70</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,10 +1269,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,10 +1280,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,10 +1291,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,10 +1302,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,10 +1313,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,10 +1324,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,10 +1335,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,10 +1346,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,10 +1357,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,10 +1368,210 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
         <v>82</v>
       </c>
-      <c r="C49" t="s">
-        <v>86</v>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/kasus_pengaduan_dan_solusi.xlsx
+++ b/dataset/kasus_pengaduan_dan_solusi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dara\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D4C69-92E2-428C-9337-5363BE9915E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C699BE6-7502-414A-AC08-5B39A1076600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F2ADFE-3A3B-49AC-88BC-5E00DD59CFD5}"/>
   </bookViews>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63E554-28A6-4ED2-B60F-A1647BC077A1}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,6 +1375,9 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
@@ -1383,6 +1386,9 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
         <v>100</v>
       </c>
@@ -1391,6 +1397,9 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
         <v>101</v>
       </c>
@@ -1399,6 +1408,9 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" t="s">
         <v>102</v>
       </c>
@@ -1407,6 +1419,9 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
@@ -1415,6 +1430,9 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" t="s">
         <v>107</v>
       </c>
@@ -1423,6 +1441,9 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
@@ -1431,6 +1452,9 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" t="s">
         <v>109</v>
       </c>
@@ -1439,6 +1463,9 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" t="s">
         <v>110</v>
       </c>
@@ -1447,6 +1474,9 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -1455,6 +1485,9 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -1463,6 +1496,9 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" t="s">
         <v>119</v>
       </c>
@@ -1471,6 +1507,9 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
         <v>120</v>
       </c>
@@ -1479,6 +1518,9 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" t="s">
         <v>121</v>
       </c>
@@ -1487,6 +1529,9 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" t="s">
         <v>122</v>
       </c>
@@ -1494,7 +1539,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
@@ -1502,7 +1550,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" t="s">
         <v>124</v>
       </c>
@@ -1510,7 +1561,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" t="s">
         <v>125</v>
       </c>
@@ -1518,7 +1572,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" t="s">
         <v>126</v>
       </c>
@@ -1526,7 +1583,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" t="s">
         <v>127</v>
       </c>
@@ -1534,7 +1594,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" t="s">
         <v>128</v>
       </c>
@@ -1542,7 +1605,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" t="s">
         <v>129</v>
       </c>
@@ -1550,7 +1616,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" t="s">
         <v>130</v>
       </c>
@@ -1558,7 +1627,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -1566,7 +1638,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" t="s">
         <v>131</v>
       </c>
